--- a/src/assets/planilha_de_ramais.xlsx
+++ b/src/assets/planilha_de_ramais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.almeida\Desktop\ramais\lista-de-ramais\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC88EB0-3CB0-4511-99E2-65BC6A9F160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ECEA3E-11C7-47D6-B680-13C6B31ABA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{45DE8AC7-1F08-4348-9830-FFE096CC0B59}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45DE8AC7-1F08-4348-9830-FFE096CC0B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
   <si>
     <t>Ana Villegas</t>
   </si>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t>foto</t>
+  </si>
+  <si>
+    <t>Sala de Reunião</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/L6g5KnMy/estrela.webp</t>
   </si>
 </sst>
 </file>
@@ -729,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C900014C-14C8-4838-8849-A03641E53F4B}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,6 +1219,20 @@
       </c>
       <c r="F24" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1260,6 +1280,7 @@
     <hyperlink ref="F23" r:id="rId41" xr:uid="{F74AF90C-8DCA-48BE-A77E-6F7E8469AC4E}"/>
     <hyperlink ref="E24" r:id="rId42" xr:uid="{B42644BC-A94C-467A-B0E6-611C15657B88}"/>
     <hyperlink ref="F24" r:id="rId43" xr:uid="{F8B5C0C4-43CA-4BC2-BE06-EDA7909FECD4}"/>
+    <hyperlink ref="F25" r:id="rId44" xr:uid="{59EDB2A5-1A1E-4F75-BD5A-1081A001173D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
